--- a/data_processed/20250723/BTCUSDQMOMENT_20250723.xlsx
+++ b/data_processed/20250723/BTCUSDQMOMENT_20250723.xlsx
@@ -1202,10 +1202,18 @@
       <c r="H20" t="n">
         <v>7.240240178733063</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>-0.2008906139042105</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.1320173957889776</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.0771960728725874</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.113254832121663</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250723/BTCUSDQMOMENT_20250723.xlsx
+++ b/data_processed/20250723/BTCUSDQMOMENT_20250723.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>12.25683512368275</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.3455109999618997</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2196478599460466</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.4328907103504786</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.801133796137951</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250723/BTCUSDQMOMENT_20250723.xlsx
+++ b/data_processed/20250723/BTCUSDQMOMENT_20250723.xlsx
@@ -594,19 +594,19 @@
         <v>0.1780821917808219</v>
       </c>
       <c r="D4" t="n">
-        <v>120164.1482080818</v>
+        <v>120182.6963248574</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0001029423483482403</v>
+        <v>0.001013526776580606</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2219338340174078</v>
+        <v>0.2143536725542664</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.396215019967995</v>
+        <v>-0.9571585894267705</v>
       </c>
       <c r="H4" t="n">
-        <v>17.07663236835153</v>
+        <v>10.68364220396225</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -628,19 +628,19 @@
         <v>0.273972602739726</v>
       </c>
       <c r="D5" t="n">
-        <v>120983.8890122149</v>
+        <v>120983.0067852185</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.01088379224435521</v>
+        <v>-0.01088978681485037</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2447045910439023</v>
+        <v>0.2445175544675988</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.386367359622032</v>
+        <v>-1.370914664415405</v>
       </c>
       <c r="H5" t="n">
-        <v>14.00114845199765</v>
+        <v>13.7504751161537</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -696,19 +696,19 @@
         <v>0.4273972602739726</v>
       </c>
       <c r="D7" t="n">
-        <v>122296.7000217861</v>
+        <v>122293.3437093496</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.02350876840919668</v>
+        <v>-0.02376661751950196</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2587033195463735</v>
+        <v>0.260494992602112</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.061252159290037</v>
+        <v>-1.129483318729288</v>
       </c>
       <c r="H7" t="n">
-        <v>9.977403955831324</v>
+        <v>10.71342127783571</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -730,19 +730,19 @@
         <v>0.8493150684931506</v>
       </c>
       <c r="D8" t="n">
-        <v>123933.581037781</v>
+        <v>123937.0595087343</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.03921590656067705</v>
+        <v>-0.0390933828783337</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2134223884659762</v>
+        <v>0.2129417120102251</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.7773648526128647</v>
+        <v>-0.7623385489216303</v>
       </c>
       <c r="H8" t="n">
-        <v>6.772076909061735</v>
+        <v>6.659797727762894</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -764,19 +764,19 @@
         <v>0.9260273972602739</v>
       </c>
       <c r="D9" t="n">
-        <v>125228.1881471598</v>
+        <v>125253.2435387082</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07901548120781299</v>
+        <v>-0.07266281220699891</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3756250572472351</v>
+        <v>0.3310479510830294</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.307984665496278</v>
+        <v>-1.542482876485479</v>
       </c>
       <c r="H9" t="n">
-        <v>16.50598753002706</v>
+        <v>9.932864118809061</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -798,19 +798,19 @@
         <v>1.175342465753425</v>
       </c>
       <c r="D10" t="n">
-        <v>126820.9488680233</v>
+        <v>126820.8199628138</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1109754556217052</v>
+        <v>-0.1110221762133587</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4426603440016292</v>
+        <v>0.4429786770403688</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.94440195221838</v>
+        <v>-1.947676407540862</v>
       </c>
       <c r="H10" t="n">
-        <v>9.962589509603966</v>
+        <v>9.986871299635201</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -832,19 +832,19 @@
         <v>1.421917808219178</v>
       </c>
       <c r="D11" t="n">
-        <v>128965.0803706137</v>
+        <v>128939.2712006311</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1782495779211295</v>
+        <v>-0.1899320620052032</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6974306004439932</v>
+        <v>0.7873168261214663</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.270576008779198</v>
+        <v>-2.661611395256252</v>
       </c>
       <c r="H11" t="n">
-        <v>9.863822056151324</v>
+        <v>13.12153382279394</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1070,19 +1070,19 @@
         <v>0.02465753424657534</v>
       </c>
       <c r="D17" t="n">
-        <v>119387.5962026568</v>
+        <v>119391.4152366399</v>
       </c>
       <c r="E17" t="n">
-        <v>0.06238122612288277</v>
+        <v>0.06438063257754784</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1888939011215558</v>
+        <v>0.1611339399763616</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.252504761490689</v>
+        <v>-1.722164190215021</v>
       </c>
       <c r="H17" t="n">
-        <v>37.60525339160636</v>
+        <v>13.61415250937092</v>
       </c>
       <c r="I17" t="n">
         <v>-0.05868901640448798</v>
@@ -1112,19 +1112,19 @@
         <v>0.04383561643835616</v>
       </c>
       <c r="D18" t="n">
-        <v>119484.9019224663</v>
+        <v>119539.1105384298</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04403702978598616</v>
+        <v>0.04744025577969273</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1723466745247999</v>
+        <v>0.1565464439957156</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.569707240215157</v>
+        <v>-0.6389219314865378</v>
       </c>
       <c r="H18" t="n">
-        <v>19.62123650047534</v>
+        <v>9.62109017717134</v>
       </c>
       <c r="I18" t="n">
         <v>-0.266625239794</v>
@@ -1154,19 +1154,19 @@
         <v>0.06301369863013699</v>
       </c>
       <c r="D19" t="n">
-        <v>119529.6639849555</v>
+        <v>119576.4072627097</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03197930809890982</v>
+        <v>0.03448563976614866</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1686822667303057</v>
+        <v>0.1591395647225821</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.6932040944958673</v>
+        <v>-0.3104426309802923</v>
       </c>
       <c r="H19" t="n">
-        <v>8.953626634401415</v>
+        <v>6.674249834399131</v>
       </c>
       <c r="I19" t="n">
         <v>-0.1336698318550299</v>
@@ -1196,19 +1196,19 @@
         <v>0.0821917808219178</v>
       </c>
       <c r="D20" t="n">
-        <v>119550.7993983728</v>
+        <v>119616.1874060205</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02062490540381848</v>
+        <v>0.02367896888974719</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1811866862142876</v>
+        <v>0.1711197132699751</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.552608375959097</v>
+        <v>-0.2379160475045328</v>
       </c>
       <c r="H20" t="n">
-        <v>7.240240178733063</v>
+        <v>5.732725964501296</v>
       </c>
       <c r="I20" t="n">
         <v>-0.2008906139042105</v>

--- a/data_processed/20250723/BTCUSDQMOMENT_20250723.xlsx
+++ b/data_processed/20250723/BTCUSDQMOMENT_20250723.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>10.68364220396225</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.5526277053071973</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.26354206226537</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.1854292826954238</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.388428212752406</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">

--- a/data_processed/20250723/BTCUSDQMOMENT_20250723.xlsx
+++ b/data_processed/20250723/BTCUSDQMOMENT_20250723.xlsx
@@ -650,10 +650,18 @@
       <c r="H5" t="n">
         <v>13.7504751161537</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>-0.5934017483515905</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4529499003166974</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2367433508890373</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.628059292783453</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
